--- a/public/xcelTemplates/SuppliersTemplate.xlsx
+++ b/public/xcelTemplates/SuppliersTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.stark/ReactJs Projects/tinatett-pos/public/xcelTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB6693-FF2C-124E-A301-F594B6B27DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB7444-8DA4-2941-B850-F0D3F985D357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{94BC3CB1-B96D-BB4A-9CF2-2C7A72E9C1E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>1 month</t>
+  </si>
+  <si>
+    <t>SupplierType</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Dami and Sons</t>
+  </si>
+  <si>
+    <t>Company</t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF3444D-73FC-4443-A682-5BEC5F3155A8}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +481,7 @@
     <col min="11" max="11" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -503,8 +515,11 @@
       <c r="K1" t="s">
         <v>14</v>
       </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -525,11 +540,41 @@
       </c>
       <c r="H2" t="s">
         <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>542542299</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{04318A09-49BE-144B-A54D-1D31B7B14179}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{78CAD28E-73A4-5640-8B4A-DBCEF27A2C8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
